--- a/classfiers/greedy/welm/greedy_welm_lin_results.xlsx
+++ b/classfiers/greedy/welm/greedy_welm_lin_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8971014492753623</v>
+        <v>0.9437799043062201</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9312227074235808</v>
+        <v>0.8820754716981132</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8701298701298702</v>
+        <v>0.7647342995169082</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.741304347826087</v>
+        <v>0.9038461538461539</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9952830188679245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8782608695652173</v>
+        <v>0.8578199052132701</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9888264022495189</v>
+        <v>0.9858712020550978</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8636038488440235</v>
+        <v>0.870451146916133</v>
       </c>
     </row>
   </sheetData>
